--- a/data/trans_orig/P78C6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C6_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FDEA136-4EEC-4C2B-9C83-C4FF813389E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30E67659-65E5-4EE4-B112-201FAC4AC6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B1D4C527-D7DF-47CC-92F7-2BC1B6DC9AC7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5CA2B2C7-E85C-461A-A43B-9BBFEC9A70F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,166 +134,166 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
   </si>
   <si>
     <t>91,21%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -708,7 +708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDA982D-4E2C-4099-B58F-0BEED3527BB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4936FED8-1AA0-4B11-9CDE-771799A80BA8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -829,7 +829,7 @@
         <v>81</v>
       </c>
       <c r="D4" s="7">
-        <v>70134</v>
+        <v>61190</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -844,7 +844,7 @@
         <v>172</v>
       </c>
       <c r="I4" s="7">
-        <v>111539</v>
+        <v>96081</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -859,7 +859,7 @@
         <v>253</v>
       </c>
       <c r="N4" s="7">
-        <v>181672</v>
+        <v>157271</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -880,7 +880,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>17091</v>
+        <v>15505</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -895,7 +895,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>18619</v>
+        <v>17003</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -910,7 +910,7 @@
         <v>44</v>
       </c>
       <c r="N5" s="7">
-        <v>35711</v>
+        <v>32508</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -931,7 +931,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="7">
-        <v>87225</v>
+        <v>76695</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -946,7 +946,7 @@
         <v>197</v>
       </c>
       <c r="I6" s="7">
-        <v>130158</v>
+        <v>113084</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -961,7 +961,7 @@
         <v>297</v>
       </c>
       <c r="N6" s="7">
-        <v>217383</v>
+        <v>189779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -984,7 +984,7 @@
         <v>155</v>
       </c>
       <c r="D7" s="7">
-        <v>165172</v>
+        <v>147560</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -999,7 +999,7 @@
         <v>193</v>
       </c>
       <c r="I7" s="7">
-        <v>167030</v>
+        <v>142404</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1014,7 +1014,7 @@
         <v>348</v>
       </c>
       <c r="N7" s="7">
-        <v>332202</v>
+        <v>289964</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1035,7 +1035,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>15332</v>
+        <v>14766</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1050,7 +1050,7 @@
         <v>31</v>
       </c>
       <c r="I8" s="7">
-        <v>30765</v>
+        <v>30326</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1065,7 +1065,7 @@
         <v>48</v>
       </c>
       <c r="N8" s="7">
-        <v>46097</v>
+        <v>45092</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1086,7 +1086,7 @@
         <v>172</v>
       </c>
       <c r="D9" s="7">
-        <v>180504</v>
+        <v>162326</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1101,7 +1101,7 @@
         <v>224</v>
       </c>
       <c r="I9" s="7">
-        <v>197795</v>
+        <v>172730</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1116,7 +1116,7 @@
         <v>396</v>
       </c>
       <c r="N9" s="7">
-        <v>378299</v>
+        <v>335056</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1139,7 +1139,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>12649</v>
+        <v>11260</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1154,7 +1154,7 @@
         <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>20948</v>
+        <v>18661</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -1169,7 +1169,7 @@
         <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>33596</v>
+        <v>29921</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1205,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>4876</v>
+        <v>4570</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -1220,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>4876</v>
+        <v>4570</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>65</v>
@@ -1241,7 +1241,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="7">
-        <v>12649</v>
+        <v>11260</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1256,7 +1256,7 @@
         <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>25824</v>
+        <v>23231</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1271,7 +1271,7 @@
         <v>47</v>
       </c>
       <c r="N12" s="7">
-        <v>38472</v>
+        <v>34491</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1294,7 +1294,7 @@
         <v>250</v>
       </c>
       <c r="D13" s="7">
-        <v>247954</v>
+        <v>220010</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -1309,7 +1309,7 @@
         <v>393</v>
       </c>
       <c r="I13" s="7">
-        <v>299516</v>
+        <v>257146</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -1324,7 +1324,7 @@
         <v>643</v>
       </c>
       <c r="N13" s="7">
-        <v>547470</v>
+        <v>477156</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -1345,7 +1345,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>32424</v>
+        <v>30271</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1360,7 +1360,7 @@
         <v>61</v>
       </c>
       <c r="I14" s="7">
-        <v>54260</v>
+        <v>51899</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -1375,7 +1375,7 @@
         <v>97</v>
       </c>
       <c r="N14" s="7">
-        <v>86684</v>
+        <v>82170</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -1396,7 +1396,7 @@
         <v>286</v>
       </c>
       <c r="D15" s="7">
-        <v>280378</v>
+        <v>250281</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1411,7 +1411,7 @@
         <v>454</v>
       </c>
       <c r="I15" s="7">
-        <v>353776</v>
+        <v>309045</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1426,7 +1426,7 @@
         <v>740</v>
       </c>
       <c r="N15" s="7">
-        <v>634154</v>
+        <v>559326</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
